--- a/product/抽奖结果.xlsx
+++ b/product/抽奖结果.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -553,96 +553,162 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>美的养生壶</v>
+        <v>699</v>
+      </c>
+      <c r="B34" t="str">
+        <v>朱小梅</v>
+      </c>
+      <c r="C34" t="str">
+        <v>仓储部</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>小熊电热水壶</v>
+        <v>美的养生壶</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>美的电热水壶</v>
+        <v>615</v>
+      </c>
+      <c r="B36" t="str">
+        <v>朱玲凤</v>
+      </c>
+      <c r="C36" t="str">
+        <v>质量部</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>小米蓝牙耳机</v>
+        <v>小熊电热水壶</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>喜之郎新春礼盒</v>
+        <v>326</v>
+      </c>
+      <c r="B38" t="str">
+        <v>汪源</v>
+      </c>
+      <c r="C38" t="str">
+        <v>技术部</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>小米充电宝</v>
+        <v>美的电热水壶</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>726</v>
+        <v>365</v>
       </c>
       <c r="B40" t="str">
-        <v>罗永浩</v>
+        <v>高铁旦</v>
       </c>
       <c r="C40" t="str">
-        <v>品牌渠道市场部</v>
+        <v>研发部</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>九阳电饭煲（5L）</v>
+        <v>小米蓝牙耳机</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>426</v>
+        <v>557</v>
       </c>
       <c r="B42" t="str">
-        <v>李春龙</v>
+        <v>兰献忠</v>
       </c>
       <c r="C42" t="str">
-        <v>制造部</v>
+        <v>仓储部</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>九阳多功能蒸蛋器</v>
+        <v>喜之郎新春礼盒</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>102</v>
+        <v>570</v>
       </c>
       <c r="B44" t="str">
-        <v>邹叶巧</v>
+        <v>赖章宁</v>
       </c>
       <c r="C44" t="str">
-        <v>制造部</v>
+        <v>技术部</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>九阳电热水壶</v>
+        <v>小米充电宝</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>661</v>
+        <v>714</v>
       </c>
       <c r="B46" t="str">
-        <v>董德青</v>
+        <v>韦涵芬</v>
       </c>
       <c r="C46" t="str">
         <v>制造部</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>九阳电饭煲（5L）</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>128</v>
+      </c>
+      <c r="B48" t="str">
+        <v>刘开华</v>
+      </c>
+      <c r="C48" t="str">
+        <v>视觉设计部</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>九阳多功能蒸蛋器</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>514</v>
+      </c>
+      <c r="B50" t="str">
+        <v>张港龙</v>
+      </c>
+      <c r="C50" t="str">
+        <v>技术部</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>九阳电热水壶</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>447</v>
+      </c>
+      <c r="B52" t="str">
+        <v>黄碧虹</v>
+      </c>
+      <c r="C52" t="str">
+        <v>商务部</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C52"/>
   </ignoredErrors>
 </worksheet>
 </file>